--- a/XLuaMvcEditor/Assets/ExcelFile/LuaServer/Boss.xlsx
+++ b/XLuaMvcEditor/Assets/ExcelFile/LuaServer/Boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16455" windowHeight="6960"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>类型Boss</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>数组Int</t>
+  </si>
+  <si>
+    <t>数组Float</t>
+  </si>
+  <si>
+    <t>数组Double</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -30,34 +63,118 @@
     <t>Attack</t>
   </si>
   <si>
+    <t>Ints</t>
+  </si>
+  <si>
+    <t>Floats</t>
+  </si>
+  <si>
+    <t>Doubles</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
     <t>Bear_Boss</t>
   </si>
   <si>
+    <t>[1,1,1]</t>
+  </si>
+  <si>
+    <t>[1.1,1.2,1.3]</t>
+  </si>
+  <si>
+    <t>[1.1111111111111111111111,1.1111111111111111111111,1.1111111111111111111111]</t>
+  </si>
+  <si>
+    <t>[死神,弃天帝,厄祸]</t>
+  </si>
+  <si>
     <t>Bird_Boss</t>
   </si>
   <si>
+    <t>[1,1,2]</t>
+  </si>
+  <si>
+    <t>[1.1,1.2,1.4]</t>
+  </si>
+  <si>
     <t>Deer_Boss</t>
   </si>
   <si>
+    <t>[1,1,3]</t>
+  </si>
+  <si>
+    <t>[1.1,1.2,1.5]</t>
+  </si>
+  <si>
     <t>Lion_Boss</t>
   </si>
   <si>
+    <t>[1,1,4]</t>
+  </si>
+  <si>
+    <t>[1.1,1.2,1.6]</t>
+  </si>
+  <si>
     <t>SikaDeer_Boss</t>
   </si>
   <si>
+    <t>[1,1,5]</t>
+  </si>
+  <si>
+    <t>[1.1,1.2,1.7]</t>
+  </si>
+  <si>
     <t>Tiger_Boss</t>
   </si>
   <si>
+    <t>[1,1,6]</t>
+  </si>
+  <si>
+    <t>[1.1,1.2,1.8]</t>
+  </si>
+  <si>
     <t>Wolf_Boss</t>
   </si>
   <si>
+    <t>[1,1,7]</t>
+  </si>
+  <si>
+    <t>[1.1,1.2,1.9]</t>
+  </si>
+  <si>
     <t>Fox_Boss</t>
   </si>
   <si>
+    <t>[1,1,8]</t>
+  </si>
+  <si>
+    <t>[1.1,1.2,1.10]</t>
+  </si>
+  <si>
     <t>Wildboar_Boss</t>
   </si>
   <si>
+    <t>[1,1,9]</t>
+  </si>
+  <si>
+    <t>[1.1,1.2,1.11]</t>
+  </si>
+  <si>
+    <t>[1,1,10]</t>
+  </si>
+  <si>
+    <t>[1.1,1.2,1.12]</t>
+  </si>
+  <si>
     <t>Orangutan_Boss</t>
+  </si>
+  <si>
+    <t>[1,1,11]</t>
+  </si>
+  <si>
+    <t>[1.1,1.2,1.13]</t>
   </si>
 </sst>
 </file>
@@ -66,8 +183,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -80,12 +197,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -94,32 +264,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,90 +326,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +349,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -280,25 +421,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,6 +487,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -323,72 +506,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,6 +540,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,6 +576,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -451,16 +592,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,30 +640,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -531,10 +648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,139 +660,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -730,6 +853,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1014,178 +1142,381 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="4" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="62.5" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2">
+        <v>100</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2">
         <v>100</v>
       </c>
-      <c r="D2">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2">
         <v>100</v>
       </c>
-      <c r="D3">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2">
         <v>100</v>
       </c>
-      <c r="D4">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2">
         <v>100</v>
       </c>
-      <c r="D5">
+      <c r="D10" s="2">
         <v>1</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2">
         <v>100</v>
       </c>
-      <c r="D6">
+      <c r="D11" s="2">
         <v>1</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2">
         <v>100</v>
       </c>
-      <c r="D7">
+      <c r="D12" s="2">
         <v>1</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="C8">
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2">
         <v>100</v>
       </c>
-      <c r="D8">
+      <c r="D14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+      <c r="E14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1196,7 +1527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1213,7 +1544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
